--- a/src/files/COTIZACION 44911.xlsx
+++ b/src/files/COTIZACION 44911.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi Pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{734BF208-343D-46D2-BF8C-1B254E5ACB09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AB75BC-AB05-4162-8000-F42FC0C8B735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,7 +1015,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>44911</v>
+        <v>44999439</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>

--- a/src/files/COTIZACION 44911.xlsx
+++ b/src/files/COTIZACION 44911.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi Pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AB75BC-AB05-4162-8000-F42FC0C8B735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABE1AA9-762F-4572-999B-CA34185DB385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,7 +1015,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>44999439</v>
+        <v>56000</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>

--- a/src/files/COTIZACION 44911.xlsx
+++ b/src/files/COTIZACION 44911.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi Pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABE1AA9-762F-4572-999B-CA34185DB385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB599B7-1972-4C59-8F9B-E1D7ED259440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="2505" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
   <si>
     <t>NUMERO DE CLIENTE</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>TOR G5 NF 5/16-24 X 1 1/4</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -577,6 +580,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -968,8 +974,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>842</v>
+      <c r="B1" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -983,19 +989,19 @@
       <c r="G1" s="4">
         <v>11386.22</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -1003,19 +1009,19 @@
       <c r="G2" s="4">
         <v>1821.7952</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>56000</v>
+        <v>599110</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>

--- a/src/files/COTIZACION 44911.xlsx
+++ b/src/files/COTIZACION 44911.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi Pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB599B7-1972-4C59-8F9B-E1D7ED259440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C793053-85B4-4B6A-B898-E4B6CC0A80D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2505" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1021,7 +1021,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>599110</v>
+        <v>5993310</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>

--- a/src/files/COTIZACION 44911.xlsx
+++ b/src/files/COTIZACION 44911.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi Pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C793053-85B4-4B6A-B898-E4B6CC0A80D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06E44B4-7254-43BD-9750-94AAC393219D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,7 @@
     <t>TOR G5 NF 5/16-24 X 1 1/4</t>
   </si>
   <si>
-    <t>65</t>
+    <t>289</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>5993310</v>
+        <v>785814</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>

--- a/src/files/COTIZACION 44911.xlsx
+++ b/src/files/COTIZACION 44911.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi Pc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06E44B4-7254-43BD-9750-94AAC393219D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4967B8D-F9F5-4DD4-BC4C-C1F32EEFA402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1021,7 +1021,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>785814</v>
+        <v>985914</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
